--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1856054.815463138</v>
+        <v>-1858732.700861998</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>73.09793466719454</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>378.5430644640228</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>37.92038025766377</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>39.76313412434815</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>261.0363737428638</v>
       </c>
       <c r="X5" t="n">
-        <v>223.6305672662267</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>112.3581576295183</v>
+        <v>71.44107233829608</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>75.36188596892322</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>32.49442595689477</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>36.93693655601715</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>52.20739328354825</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1582,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>126.9263824507421</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>19.17715139986212</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>133.7457933526584</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>112.6849016609949</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>29.24923305751697</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>274.1357181000192</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545298</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2773,7 +2773,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.547332689898</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2959,7 +2959,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>494.0456011520457</v>
+        <v>1588.713578732508</v>
       </c>
       <c r="C2" t="n">
-        <v>125.0830842116339</v>
+        <v>1219.751061792097</v>
       </c>
       <c r="D2" t="n">
-        <v>51.24678656800311</v>
+        <v>1219.751061792097</v>
       </c>
       <c r="E2" t="n">
-        <v>51.24678656800311</v>
+        <v>1219.751061792097</v>
       </c>
       <c r="F2" t="n">
-        <v>51.24678656800311</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.784773191979</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y2" t="n">
-        <v>880.6454412161675</v>
+        <v>1975.31341879663</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4389,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4410,19 +4410,19 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>458.7060632252739</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>1092.885047004312</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P3" t="n">
         <v>2422.685363568936</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1419.811915226941</v>
+        <v>1290.234738893856</v>
       </c>
       <c r="C4" t="n">
-        <v>1419.811915226941</v>
+        <v>1121.298555965949</v>
       </c>
       <c r="D4" t="n">
-        <v>1419.811915226941</v>
+        <v>1121.298555965949</v>
       </c>
       <c r="E4" t="n">
-        <v>1271.898821644548</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="F4" t="n">
-        <v>1271.898821644548</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="H4" t="n">
         <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936618</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
         <v>1174.299679627706</v>
@@ -4510,28 +4510,28 @@
         <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="T4" t="n">
-        <v>2339.360847594891</v>
+        <v>2236.777441110473</v>
       </c>
       <c r="U4" t="n">
-        <v>2050.242510098728</v>
+        <v>2236.777441110473</v>
       </c>
       <c r="V4" t="n">
-        <v>2050.242510098728</v>
+        <v>1982.092952904586</v>
       </c>
       <c r="W4" t="n">
-        <v>2050.242510098728</v>
+        <v>1692.675782867625</v>
       </c>
       <c r="X4" t="n">
-        <v>1822.252959200711</v>
+        <v>1692.675782867625</v>
       </c>
       <c r="Y4" t="n">
-        <v>1601.460380057181</v>
+        <v>1471.883203724095</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1228.647807131574</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="C5" t="n">
-        <v>859.685290191162</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
@@ -4571,7 +4571,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>2231.276441056585</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="X5" t="n">
-        <v>2005.386979171507</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="Y5" t="n">
-        <v>1615.247647195695</v>
+        <v>1634.158487398107</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>157.1019332386098</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="C7" t="n">
-        <v>157.1019332386098</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="D7" t="n">
-        <v>157.1019332386098</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386098</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4738,37 +4738,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>927.7205539329314</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V7" t="n">
-        <v>673.0360657270445</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="W7" t="n">
-        <v>673.0360657270445</v>
+        <v>766.7825745419673</v>
       </c>
       <c r="X7" t="n">
-        <v>559.5429772123796</v>
+        <v>694.6198752103551</v>
       </c>
       <c r="Y7" t="n">
-        <v>338.7503980688494</v>
+        <v>473.8272960668249</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,19 +4802,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3139.192035995939</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3139.192035995939</v>
       </c>
       <c r="V8" t="n">
-        <v>2722.984276312612</v>
+        <v>2808.129148652368</v>
       </c>
       <c r="W8" t="n">
-        <v>2722.984276312612</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="X8" t="n">
-        <v>2349.518518051532</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y8" t="n">
-        <v>1959.379186075721</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>943.7005868594143</v>
+        <v>661.9578014444415</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7644039315074</v>
+        <v>661.9578014444415</v>
       </c>
       <c r="D10" t="n">
         <v>624.6477645191717</v>
@@ -4960,16 +4960,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="V10" t="n">
-        <v>1461.107307794392</v>
+        <v>1361.012987209659</v>
       </c>
       <c r="W10" t="n">
-        <v>1171.690137757432</v>
+        <v>1071.595817172699</v>
       </c>
       <c r="X10" t="n">
-        <v>943.7005868594143</v>
+        <v>843.6062662746813</v>
       </c>
       <c r="Y10" t="n">
-        <v>943.7005868594143</v>
+        <v>843.6062662746813</v>
       </c>
     </row>
     <row r="11">
@@ -5036,19 +5036,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5130,16 +5130,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5255,10 +5255,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C16" t="n">
-        <v>385.6451336181095</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>336.9860575577209</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="17">
@@ -5501,28 +5501,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355936</v>
@@ -5601,19 +5601,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>633.4413279836774</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000582</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1553.289092892425</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1263.871922855465</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.882371957447</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>815.0897928139171</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1652.717886400351</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
-        <v>2204.627616639638</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1700.556314752913</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1445.871826547026</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1156.454656510065</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>928.4651056120481</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>707.672526468518</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,25 +6303,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
         <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6443,7 +6443,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6458,7 +6458,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6552,13 +6552,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580114</v>
@@ -6680,16 +6680,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6701,16 +6701,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6880,28 +6880,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,7 +6932,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7114,31 +7114,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150023</v>
@@ -7318,16 +7318,16 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,7 +7336,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,22 +7488,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7555,10 +7555,10 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,25 +7567,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7725,22 +7725,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,19 +7825,19 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>35.91627445172509</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621888</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>60.3579772739767</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>265.0304328515143</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>294.834493518473</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>281.5851069534884</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>28.33298127768859</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>26.38852247060594</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>288.4308682682701</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>138.4949402405077</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>40.6433062151475</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>40.32043864788577</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>146.3469868924067</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>118.3918499711696</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>54.56191943763298</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>12.04875628922491</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1319542.49604142</v>
+        <v>1319542.496041421</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81152.27790359156</v>
+        <v>81152.27790359157</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26320,7 +26320,7 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>100893.3249612508</v>
+        <v>100893.3249612507</v>
       </c>
       <c r="F2" t="n">
         <v>100893.3249612508</v>
@@ -26329,13 +26329,13 @@
         <v>100893.3249612508</v>
       </c>
       <c r="H2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
         <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="K2" t="n">
         <v>102630.2212330356</v>
@@ -26344,16 +26344,16 @@
         <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309558</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744242</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
@@ -26436,28 +26436,28 @@
         <v>8727.256391744308</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744308</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="J4" t="n">
-        <v>16718.11565483774</v>
+        <v>16718.11565483778</v>
       </c>
       <c r="K4" t="n">
+        <v>16718.11565483777</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16718.11565483777</v>
+      </c>
+      <c r="M4" t="n">
         <v>16718.11565483776</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
+        <v>16718.11565483782</v>
+      </c>
+      <c r="O4" t="n">
         <v>16718.11565483775</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>16718.11565483775</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16718.11565483775</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16718.11565483776</v>
-      </c>
-      <c r="P4" t="n">
-        <v>16718.11565483776</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1163988.191862229</v>
+        <v>-1164417.750728818</v>
       </c>
       <c r="C6" t="n">
         <v>-125829.6881837924</v>
       </c>
       <c r="D6" t="n">
-        <v>-285845.1509317914</v>
+        <v>-285845.1509317912</v>
       </c>
       <c r="E6" t="n">
-        <v>-334368.9230617558</v>
+        <v>-334403.6609871918</v>
       </c>
       <c r="F6" t="n">
-        <v>-8956.461254400623</v>
+        <v>-8991.199179836301</v>
       </c>
       <c r="G6" t="n">
-        <v>-8956.461254400623</v>
+        <v>-8991.199179836316</v>
       </c>
       <c r="H6" t="n">
-        <v>-8956.461254400681</v>
+        <v>-8991.199179836316</v>
       </c>
       <c r="I6" t="n">
-        <v>-8956.461254400652</v>
+        <v>-8991.199179836301</v>
       </c>
       <c r="J6" t="n">
-        <v>-204284.9060793319</v>
+        <v>-204284.9060793321</v>
       </c>
       <c r="K6" t="n">
-        <v>-17252.01027571755</v>
+        <v>-17252.01027571752</v>
       </c>
       <c r="L6" t="n">
         <v>-65545.98028390842</v>
       </c>
       <c r="M6" t="n">
-        <v>-102307.0382112295</v>
+        <v>-102307.0382112296</v>
       </c>
       <c r="N6" t="n">
-        <v>-17252.01027571771</v>
+        <v>-17252.01027571774</v>
       </c>
       <c r="O6" t="n">
-        <v>-36679.72826934952</v>
+        <v>-36679.72826934946</v>
       </c>
       <c r="P6" t="n">
-        <v>-17252.01027571772</v>
+        <v>-17252.01027571769</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,7 +26790,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26799,7 +26799,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973557</v>
@@ -27039,7 +27039,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>39.32139020186456</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>39.3213902018648</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>108.5135823889054</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>126.543465920456</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -27591,16 +27591,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>88.20459497454925</v>
       </c>
       <c r="X5" t="n">
-        <v>146.1005334122424</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>113.3514977595189</v>
+        <v>154.2685830507411</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>128.5560841706969</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>295.2578325132401</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>111.6785364621952</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>199.9302500402798</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="29">
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366855</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>377.6350660745956</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32245,7 +32245,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O17" t="n">
         <v>926.5868626460029</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>368.6279838366847</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
@@ -32336,7 +32336,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,31 +32783,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P24" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33023,28 +33023,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>398.1179220955534</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33272,16 +33272,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,25 +33494,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34132,10 +34132,10 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34208,10 +34208,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>321.1112257697157</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34363,13 +34363,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34445,10 +34445,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>321.1112257697157</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>222.5037706952099</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>395.7826592700997</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>562.7107934893645</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>630.259175514596</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533522</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35893,7 +35893,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
@@ -35969,13 +35969,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>237.2862717533515</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P24" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>259.5635423156792</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36920,16 +36920,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37780,10 +37780,10 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37856,10 +37856,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38093,10 +38093,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
